--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Martinique/Centre_hospitalier_universitaire_de_Martinique.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Martinique/Centre_hospitalier_universitaire_de_Martinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre Hospitalier Universitaire de Martinique  (CHU de Martinique ou CHUM[1]) est un Centre Hospitalier Universitaire d'une capacité totale de 1506 lits en 2017. Situé à Fort-de-France, sur l'ile de la Martinique[2]
+Le Centre Hospitalier Universitaire de Martinique  (CHU de Martinique ou CHUM) est un Centre Hospitalier Universitaire d'une capacité totale de 1506 lits en 2017. Situé à Fort-de-France, sur l'ile de la Martinique
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU de Martinique est un établissement de référence dans les Caraïbes[3] avec un personnel de 5610 agents dont 670 médecins. Le CHU comporte une école interrégionale de sage-femme, un Institut de Formation en Soins Infirmiers, un Institut de Formation d’Aide-Soignant, un Institut de Formation en Masso-Kinésithérapie et une école interrégionale d’infirmier de bloc opératoire. 
-Il est composé de 6 sites[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU de Martinique est un établissement de référence dans les Caraïbes avec un personnel de 5610 agents dont 670 médecins. Le CHU comporte une école interrégionale de sage-femme, un Institut de Formation en Soins Infirmiers, un Institut de Formation d’Aide-Soignant, un Institut de Formation en Masso-Kinésithérapie et une école interrégionale d’infirmier de bloc opératoire. 
+Il est composé de 6 sites :
 L’hôpital Pierre Zobda-Quitman
 La Maison de la Femme de la Mère et de l’Enfant
 L’hôpital du Lamentin / Mangot Vulcin
 L’hôpital Louis Domergue de Trinité
 L’hôpital Clarac
-En 2017, L'Agence régionale de santé (ARS) de Martinique place le CHU sous administration provisoire en raison d'importants problèmes financiers[5].
+En 2017, L'Agence régionale de santé (ARS) de Martinique place le CHU sous administration provisoire en raison d'importants problèmes financiers.
 </t>
         </is>
       </c>
